--- a/data/example-data.xlsx
+++ b/data/example-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonella\Desktop\bbdataeng\a-small-fhir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB07C34-37FF-4FA4-A358-D4935A38004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD64833-6D20-4D9F-8CF1-607EA67E9778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7903CEA5-AA7C-44DF-9DC5-0F9048285697}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{7903CEA5-AA7C-44DF-9DC5-0F9048285697}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>PATIENT_ID</t>
   </si>
@@ -44,77 +44,80 @@
     <t>SAMPLING_DATE</t>
   </si>
   <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>SAMPLE_ID</t>
+  </si>
+  <si>
+    <t>STORAGE_TEMPERATURE</t>
+  </si>
+  <si>
+    <t>MATERIAL_TYPE</t>
+  </si>
+  <si>
+    <t>BB0001</t>
+  </si>
+  <si>
+    <t>PAT0001</t>
+  </si>
+  <si>
+    <t>C18.2</t>
+  </si>
+  <si>
+    <t>BB0002</t>
+  </si>
+  <si>
+    <t>PAT0002</t>
+  </si>
+  <si>
+    <t>BB0003</t>
+  </si>
+  <si>
+    <t>PAT0003</t>
+  </si>
+  <si>
+    <t>C34.9</t>
+  </si>
+  <si>
+    <t>TissueFFPE</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_AGE</t>
+  </si>
+  <si>
+    <t>DATE_DIAGNOSIS</t>
+  </si>
+  <si>
     <t>ICD-10</t>
   </si>
   <si>
-    <t>AGE_AT_PRIMARY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>DONOR_AGE</t>
-  </si>
-  <si>
-    <t>SEX</t>
+    <t>DOB</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>-80</t>
-  </si>
-  <si>
-    <t>SAMPLE_ID</t>
-  </si>
-  <si>
-    <t>sample-0</t>
-  </si>
-  <si>
-    <t>sample-1</t>
-  </si>
-  <si>
-    <t>sample-2</t>
-  </si>
-  <si>
-    <t>patient-0</t>
-  </si>
-  <si>
-    <t>patient-1</t>
-  </si>
-  <si>
-    <t>C18.9</t>
-  </si>
-  <si>
-    <t>C18.1</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>STORAGE_TEMPERATURE</t>
-  </si>
-  <si>
-    <t>FFPE</t>
-  </si>
-  <si>
     <t>FROZEN</t>
   </si>
   <si>
-    <t>MATERIAL_TYPE</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_DATE</t>
+    <t>BLOOD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,12 +129,22 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,12 +156,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDAE9F8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -156,26 +169,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,23 +181,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8A45B-4F8B-45BC-A272-7D87119AF989}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,150 +553,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43960</v>
-      </c>
-      <c r="D2" s="4">
-        <v>43960</v>
-      </c>
-      <c r="E2" s="4">
-        <v>13332</v>
-      </c>
-      <c r="F2" s="3">
-        <v>80</v>
-      </c>
-      <c r="G2" s="3">
-        <v>80</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44573</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>44573</v>
+      </c>
+      <c r="F2" s="4">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7">
+        <v>25753</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43960</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43960</v>
-      </c>
-      <c r="E3" s="4">
-        <v>13332</v>
-      </c>
-      <c r="F3" s="3">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3">
-        <v>82</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="7">
+        <v>44574</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45553</v>
+      </c>
+      <c r="F3" s="4">
+        <v>51</v>
+      </c>
+      <c r="G3" s="7">
+        <v>25753</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-80</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
-        <v>43960</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43960</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14097</v>
-      </c>
-      <c r="F4" s="3">
-        <v>80</v>
-      </c>
-      <c r="G4" s="3">
-        <v>80</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="C4" s="7">
+        <v>44575</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45562</v>
+      </c>
+      <c r="F4" s="4">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <v>25753</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>